--- a/static/images/SolutionID_Upload_Sample_File.xlsx
+++ b/static/images/SolutionID_Upload_Sample_File.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumarp94\UpgradAssignment\VTA\static\images\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kumarp94\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2803516-1337-47FD-AABF-CBD6A1547CAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6424E49-DE8C-4FDE-8CB7-E7F8AE1760A0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5724" yWindow="0" windowWidth="17316" windowHeight="12360" xr2:uid="{507DB66F-3873-4606-9817-76B292B79C0D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{507DB66F-3873-4606-9817-76B292B79C0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -114,12 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,18 +433,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E29802A-1B02-4998-9C89-DC668C1ACAF4}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="9.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -459,25 +458,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="4"/>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-    </row>
   </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576" xr:uid="{72354890-5D85-4952-BD8B-941A35C13D90}">
+      <formula1>"Dsa,Gii"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576" xr:uid="{237A7E7E-59D5-45DB-A464-9CD10F156196}">
+      <formula1>"AMER,EMEA,APAC"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:D1048576" xr:uid="{D0E9F2B8-E99F-452E-AA7D-140C09DC4FB0}">
+      <formula1>"G4,Production"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
